--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1286057.95312107</v>
+        <v>-1288727.948676031</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377145</v>
+        <v>9823063.766377149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739792</v>
+        <v>335.2383332047015</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815062</v>
+        <v>351.607573981506</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311816</v>
+        <v>341.0177238311814</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>368.2650522827602</v>
       </c>
       <c r="F11" t="n">
-        <v>302.4775697183153</v>
+        <v>393.2107279522099</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639521</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978191</v>
+        <v>280.9424465978189</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342465</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501188</v>
+        <v>190.2526523501186</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694006</v>
+        <v>237.3298541694004</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889677</v>
+        <v>356.0657828889675</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665523</v>
+        <v>372.572620866552</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.166662392436</v>
+        <v>166.1666623924357</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091265</v>
+        <v>153.5815033091263</v>
       </c>
       <c r="D13" t="n">
-        <v>134.950155228711</v>
+        <v>134.9501552287108</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570678</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7557302334299</v>
+        <v>131.7557302334297</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3604904695269</v>
+        <v>152.3604904695267</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248195</v>
+        <v>131.0896971248192</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033679</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>176.1037075419403</v>
       </c>
       <c r="T13" t="n">
-        <v>106.5131062654759</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161115</v>
+        <v>179.9393410827292</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>238.4723255343264</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470897</v>
+        <v>272.8576805470894</v>
       </c>
       <c r="X13" t="n">
-        <v>212.0443375995358</v>
+        <v>212.0443375995356</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739793</v>
+        <v>369.068523873979</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815063</v>
+        <v>351.6075739815059</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311817</v>
+        <v>341.0177238311813</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827605</v>
+        <v>368.2650522827602</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>393.2107279522098</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639522</v>
+        <v>397.2564078639518</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978192</v>
+        <v>280.9424465978188</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342473</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.5224439986746</v>
+        <v>95.52244399867421</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.2526523501186</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694007</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>335.5756509279117</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>49.432857748054</v>
+        <v>356.0657828889674</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665523</v>
+        <v>83.29343250405019</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924361</v>
+        <v>166.1666623924357</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>153.5815033091262</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9501552287111</v>
+        <v>134.9501552287107</v>
       </c>
       <c r="E16" t="n">
-        <v>63.94007831148154</v>
+        <v>132.7686448570676</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.7557302334296</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.3604904695266</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248195</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.2668348805461</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419407</v>
+        <v>176.1037075419403</v>
       </c>
       <c r="T16" t="n">
-        <v>205.883631486668</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161116</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343268</v>
+        <v>238.4723255343264</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470897</v>
+        <v>246.198738334978</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995359</v>
+        <v>212.0443375995355</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.9193355625932</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553865</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629137</v>
+        <v>304.6324373629134</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125891</v>
+        <v>255.2312787783337</v>
       </c>
       <c r="E17" t="n">
-        <v>321.2899156641679</v>
+        <v>321.2899156641677</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336175</v>
+        <v>346.2355913336173</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453596</v>
+        <v>350.2812712453593</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792266</v>
+        <v>233.9673099792263</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008193</v>
+        <v>48.54730738008173</v>
       </c>
       <c r="T17" t="n">
-        <v>104.4662072972757</v>
+        <v>143.2775157315261</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508081</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V17" t="n">
-        <v>267.111804062041</v>
+        <v>267.1118040620408</v>
       </c>
       <c r="W17" t="n">
-        <v>288.6005143093191</v>
+        <v>288.6005143093189</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0906462703751</v>
+        <v>309.0906462703749</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479597</v>
+        <v>325.5974842479595</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247645</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738434</v>
+        <v>119.1915257738432</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905339</v>
+        <v>106.6063666905337</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011844</v>
+        <v>87.97501861011824</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847525</v>
+        <v>85.79350823847506</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483733</v>
+        <v>84.78059361483713</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509341</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622687</v>
+        <v>84.11456050622667</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174419</v>
+        <v>35.711966001744</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195343</v>
+        <v>28.29169826195323</v>
       </c>
       <c r="S19" t="n">
-        <v>129.128570923348</v>
+        <v>129.1285709233478</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680753</v>
+        <v>158.9084948680751</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5713837975189</v>
+        <v>225.5713837975187</v>
       </c>
       <c r="V19" t="n">
-        <v>191.4971889157341</v>
+        <v>191.4971889157339</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8825439284971</v>
+        <v>225.8825439284969</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809432</v>
+        <v>165.069200980943</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.9441989440009</v>
+        <v>157.9441989440007</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553865</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629137</v>
+        <v>304.6324373629134</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125891</v>
+        <v>294.0425872125888</v>
       </c>
       <c r="E20" t="n">
-        <v>321.2899156641679</v>
+        <v>321.2899156641677</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336175</v>
+        <v>346.2355913336173</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453596</v>
+        <v>350.2812712453593</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9673099792265</v>
+        <v>233.9673099792263</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008193</v>
+        <v>48.54730738008173</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315263</v>
+        <v>143.2775157315261</v>
       </c>
       <c r="U20" t="n">
-        <v>151.5434091165592</v>
+        <v>151.5434091165527</v>
       </c>
       <c r="V20" t="n">
-        <v>267.111804062041</v>
+        <v>267.1118040620408</v>
       </c>
       <c r="W20" t="n">
-        <v>288.6005143093191</v>
+        <v>288.6005143093189</v>
       </c>
       <c r="X20" t="n">
-        <v>309.0906462703751</v>
+        <v>309.0906462703749</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479597</v>
+        <v>325.5974842479595</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738434</v>
+        <v>119.1915257738432</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905339</v>
+        <v>106.6063666905337</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011844</v>
+        <v>87.97501861011824</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847525</v>
+        <v>85.79350823847506</v>
       </c>
       <c r="F22" t="n">
-        <v>84.78059361483733</v>
+        <v>84.78059361483713</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509341</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622687</v>
+        <v>84.11456050622667</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174419</v>
+        <v>35.711966001744</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.29169826195343</v>
+        <v>28.29169826195323</v>
       </c>
       <c r="S22" t="n">
-        <v>129.128570923348</v>
+        <v>129.1285709233478</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680753</v>
+        <v>158.9084948680751</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5713837975189</v>
+        <v>225.5713837975187</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4971889157341</v>
+        <v>191.4971889157339</v>
       </c>
       <c r="W22" t="n">
-        <v>225.8825439284971</v>
+        <v>225.8825439284969</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809432</v>
+        <v>165.069200980943</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.9441989440009</v>
+        <v>157.9441989440007</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553865</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629137</v>
+        <v>304.6324373629134</v>
       </c>
       <c r="D23" t="n">
-        <v>294.0425872125891</v>
+        <v>294.0425872125888</v>
       </c>
       <c r="E23" t="n">
-        <v>321.2899156641679</v>
+        <v>321.2899156641677</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336175</v>
+        <v>346.2355913336173</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453596</v>
+        <v>350.2812712453593</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792265</v>
+        <v>233.9673099792263</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008193</v>
+        <v>48.54730738008173</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315263</v>
+        <v>143.2775157315261</v>
       </c>
       <c r="U23" t="n">
-        <v>190.3547175508081</v>
+        <v>190.3547175508079</v>
       </c>
       <c r="V23" t="n">
-        <v>267.111804062041</v>
+        <v>267.1118040620408</v>
       </c>
       <c r="W23" t="n">
-        <v>288.6005143093191</v>
+        <v>288.6005143093189</v>
       </c>
       <c r="X23" t="n">
-        <v>309.0906462703751</v>
+        <v>309.0906462703749</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479597</v>
+        <v>325.5974842479595</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738434</v>
+        <v>119.1915257738432</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905339</v>
+        <v>106.6063666905337</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011844</v>
+        <v>87.97501861011824</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847525</v>
+        <v>85.79350823847506</v>
       </c>
       <c r="F25" t="n">
-        <v>84.78059361483733</v>
+        <v>84.78059361483713</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509343</v>
+        <v>105.3853538509341</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622687</v>
+        <v>84.11456050622667</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174419</v>
+        <v>35.711966001744</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.29169826195343</v>
+        <v>28.29169826195323</v>
       </c>
       <c r="S25" t="n">
-        <v>129.128570923348</v>
+        <v>129.1285709233478</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680753</v>
+        <v>158.9084948680751</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5713837975189</v>
+        <v>225.5713837975187</v>
       </c>
       <c r="V25" t="n">
-        <v>191.4971889157341</v>
+        <v>191.4971889157339</v>
       </c>
       <c r="W25" t="n">
-        <v>225.8825439284971</v>
+        <v>225.8825439284969</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809432</v>
+        <v>165.069200980943</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.9441989440009</v>
+        <v>157.9441989440007</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448879</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374609</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996215</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572635</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1784.909423478849</v>
+        <v>1819.081333245796</v>
       </c>
       <c r="C11" t="n">
-        <v>1429.750257840964</v>
+        <v>1463.922167607911</v>
       </c>
       <c r="D11" t="n">
-        <v>1085.28791053674</v>
+        <v>1119.459820303688</v>
       </c>
       <c r="E11" t="n">
-        <v>1085.28791053674</v>
+        <v>747.4749190079702</v>
       </c>
       <c r="F11" t="n">
-        <v>779.7550118313711</v>
+        <v>350.2923655208896</v>
       </c>
       <c r="G11" t="n">
-        <v>378.4859129788942</v>
+        <v>350.2923655208896</v>
       </c>
       <c r="H11" t="n">
-        <v>94.70566389018813</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5057,28 +5057,28 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3133.431425295919</v>
+        <v>3133.431425295918</v>
       </c>
       <c r="U11" t="n">
-        <v>2893.704299872283</v>
+        <v>2893.704299872282</v>
       </c>
       <c r="V11" t="n">
-        <v>2893.704299872283</v>
+        <v>2893.704299872282</v>
       </c>
       <c r="W11" t="n">
-        <v>2893.704299872283</v>
+        <v>2893.704299872282</v>
       </c>
       <c r="X11" t="n">
         <v>2534.041892913729</v>
@@ -5115,7 +5115,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.9902213241212</v>
+        <v>777.3581531651255</v>
       </c>
       <c r="C13" t="n">
-        <v>839.8573896987409</v>
+        <v>622.2253215397454</v>
       </c>
       <c r="D13" t="n">
-        <v>703.5441015889318</v>
+        <v>485.9120334299365</v>
       </c>
       <c r="E13" t="n">
-        <v>569.4343593090653</v>
+        <v>485.9120334299365</v>
       </c>
       <c r="F13" t="n">
-        <v>436.3477631136815</v>
+        <v>352.825437234553</v>
       </c>
       <c r="G13" t="n">
-        <v>282.4482777909271</v>
+        <v>198.9259519117988</v>
       </c>
       <c r="H13" t="n">
-        <v>150.0344423113115</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>125.1634134907253</v>
+        <v>125.1634134907255</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512079</v>
+        <v>342.6792610512084</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113103</v>
+        <v>672.7677241113111</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322466</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639937</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171956</v>
+        <v>1698.248739171957</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217222</v>
+        <v>1944.384904217223</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="R13" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.523864981342</v>
+        <v>1857.641332110698</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.934868753589</v>
+        <v>1857.641332110698</v>
       </c>
       <c r="U13" t="n">
-        <v>1652.635353181759</v>
+        <v>1675.884421926123</v>
       </c>
       <c r="V13" t="n">
-        <v>1652.635353181759</v>
+        <v>1435.003285022763</v>
       </c>
       <c r="W13" t="n">
-        <v>1377.021534447325</v>
+        <v>1159.389466288329</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.835334851834</v>
+        <v>945.2032666928384</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.835334851834</v>
+        <v>945.2032666928384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1851.361426069199</v>
+        <v>2220.350432098272</v>
       </c>
       <c r="C14" t="n">
-        <v>1496.202260431313</v>
+        <v>1865.191266460388</v>
       </c>
       <c r="D14" t="n">
-        <v>1151.739913127089</v>
+        <v>1520.728919156164</v>
       </c>
       <c r="E14" t="n">
-        <v>779.7550118313715</v>
+        <v>1148.744017860447</v>
       </c>
       <c r="F14" t="n">
-        <v>779.7550118313715</v>
+        <v>751.5614643733659</v>
       </c>
       <c r="G14" t="n">
-        <v>378.4859129788945</v>
+        <v>350.2923655208893</v>
       </c>
       <c r="H14" t="n">
-        <v>94.70566389018821</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5294,7 +5294,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438792</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="T14" t="n">
-        <v>3229.118504438792</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="U14" t="n">
-        <v>2989.391379015155</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="V14" t="n">
-        <v>2989.391379015155</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="W14" t="n">
-        <v>2650.426075047567</v>
+        <v>3036.944108125542</v>
       </c>
       <c r="X14" t="n">
-        <v>2600.493895504079</v>
+        <v>2677.281701166989</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.157914830794</v>
+        <v>2593.146920859867</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>399.8251777099735</v>
+        <v>779.0540599653762</v>
       </c>
       <c r="C16" t="n">
-        <v>399.8251777099735</v>
+        <v>623.9212283399961</v>
       </c>
       <c r="D16" t="n">
-        <v>263.5118896001643</v>
+        <v>487.6079402301873</v>
       </c>
       <c r="E16" t="n">
-        <v>198.9259519117991</v>
+        <v>353.4981979503211</v>
       </c>
       <c r="F16" t="n">
-        <v>198.9259519117991</v>
+        <v>220.4116017549376</v>
       </c>
       <c r="G16" t="n">
-        <v>198.9259519117991</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907252</v>
+        <v>125.1634134907255</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512078</v>
+        <v>342.6792610512084</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113101</v>
+        <v>672.7677241113111</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322466</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639938</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171956</v>
+        <v>1698.248739171958</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.384904217221</v>
+        <v>1944.384904217223</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981342</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041396</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.614226170749</v>
+        <v>1857.641332110698</v>
       </c>
       <c r="T16" t="n">
-        <v>1573.650962042802</v>
+        <v>1857.641332110698</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.351446470972</v>
+        <v>1857.641332110698</v>
       </c>
       <c r="V16" t="n">
-        <v>1057.470309567612</v>
+        <v>1616.760195207338</v>
       </c>
       <c r="W16" t="n">
-        <v>781.8564908331774</v>
+        <v>1368.074600929583</v>
       </c>
       <c r="X16" t="n">
-        <v>567.6702912376867</v>
+        <v>1153.888401334092</v>
       </c>
       <c r="Y16" t="n">
-        <v>567.6702912376867</v>
+        <v>946.8991734930889</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1945.543552015398</v>
+        <v>1906.340210162613</v>
       </c>
       <c r="C17" t="n">
-        <v>1637.834019325586</v>
+        <v>1598.630677472802</v>
       </c>
       <c r="D17" t="n">
         <v>1340.821304969435</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.286036621791</v>
+        <v>1016.28603662179</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827836</v>
+        <v>666.553116082783</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783802</v>
+        <v>312.7336501783798</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774716</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774716</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2821649967727</v>
+        <v>432.6878140171256</v>
       </c>
       <c r="K17" t="n">
-        <v>599.1015386866191</v>
+        <v>766.507187706972</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.135751935028</v>
+        <v>1259.539618180093</v>
       </c>
       <c r="M17" t="n">
-        <v>1669.613890121243</v>
+        <v>1793.071522852018</v>
       </c>
       <c r="N17" t="n">
-        <v>2615.101436338365</v>
+        <v>2339.8503399108</v>
       </c>
       <c r="O17" t="n">
-        <v>3118.073907217702</v>
+        <v>2842.822810790137</v>
       </c>
       <c r="P17" t="n">
-        <v>3512.84827357488</v>
+        <v>3237.597177147315</v>
       </c>
       <c r="Q17" t="n">
-        <v>3761.134635330562</v>
+        <v>3696.075379656303</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.151701887365</v>
+        <v>3820.151701887358</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.11401766506</v>
+        <v>3771.114017665053</v>
       </c>
       <c r="T17" t="n">
-        <v>3665.59259615266</v>
+        <v>3626.389254299875</v>
       </c>
       <c r="U17" t="n">
-        <v>3473.315103677096</v>
+        <v>3434.111761824312</v>
       </c>
       <c r="V17" t="n">
-        <v>3203.505200584125</v>
+        <v>3164.301858731341</v>
       </c>
       <c r="W17" t="n">
-        <v>2911.989529564611</v>
+        <v>2872.786187711827</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.776755554131</v>
+        <v>2560.573413701347</v>
       </c>
       <c r="Y17" t="n">
-        <v>2270.890407828919</v>
+        <v>2231.687065976135</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866715</v>
+        <v>951.4347720866723</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055445</v>
+        <v>776.9817428055453</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0473331442932</v>
+        <v>628.047333144294</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8098781388377</v>
+        <v>468.8098781388386</v>
       </c>
       <c r="F18" t="n">
-        <v>322.2753201657227</v>
+        <v>322.2753201657236</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983408</v>
+        <v>185.9122199983417</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620836</v>
+        <v>95.41032563620922</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774716</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283646</v>
+        <v>170.0803035283644</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087117</v>
+        <v>408.3445025087115</v>
       </c>
       <c r="L18" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213768</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
@@ -5613,28 +5613,28 @@
         <v>2417.302902492304</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.944460138904</v>
+        <v>2574.944460138905</v>
       </c>
       <c r="R18" t="n">
-        <v>2574.800106731419</v>
+        <v>2574.80010673142</v>
       </c>
       <c r="S18" t="n">
-        <v>2445.362220224899</v>
+        <v>2445.3622202249</v>
       </c>
       <c r="T18" t="n">
-        <v>2252.719219902755</v>
+        <v>2252.719219902756</v>
       </c>
       <c r="U18" t="n">
         <v>2024.651373037171</v>
       </c>
       <c r="V18" t="n">
-        <v>1789.499264805428</v>
+        <v>1789.499264805429</v>
       </c>
       <c r="W18" t="n">
-        <v>1535.261908077226</v>
+        <v>1535.261908077227</v>
       </c>
       <c r="X18" t="n">
-        <v>1327.410407871693</v>
+        <v>1327.410407871694</v>
       </c>
       <c r="Y18" t="n">
         <v>1119.65010910674</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.733708293172</v>
+        <v>672.7337082931704</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158649</v>
+        <v>565.0505096158636</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541291</v>
+        <v>476.1868544541279</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223359</v>
+        <v>389.5267451223349</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750254</v>
+        <v>303.8897818750247</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003443</v>
+        <v>197.4399295003438</v>
       </c>
       <c r="H19" t="n">
-        <v>112.475726968802</v>
+        <v>112.4757269688017</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774729</v>
+        <v>76.40303403774716</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5256664846828</v>
+        <v>121.5256664846827</v>
       </c>
       <c r="K19" t="n">
-        <v>385.5468992975721</v>
+        <v>325.512849433559</v>
       </c>
       <c r="L19" t="n">
-        <v>702.1066977460682</v>
+        <v>642.0726478820552</v>
       </c>
       <c r="M19" t="n">
-        <v>1106.29779320963</v>
+        <v>1046.263743345617</v>
       </c>
       <c r="N19" t="n">
-        <v>1478.827531366296</v>
+        <v>1447.706169915495</v>
       </c>
       <c r="O19" t="n">
-        <v>1778.15713028671</v>
+        <v>1778.157130286706</v>
       </c>
       <c r="P19" t="n">
-        <v>2010.764630720369</v>
+        <v>2010.764630720365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872883</v>
+        <v>2088.37492687288</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881011</v>
+        <v>2059.797453881008</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.364553958437</v>
+        <v>1929.364553958434</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778563</v>
+        <v>1768.850922778561</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154807</v>
+        <v>1541.001040154804</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.56953619952</v>
+        <v>1347.569536199518</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413159</v>
+        <v>1119.405350413157</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657419</v>
+        <v>952.6687837657398</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728117</v>
+        <v>793.1291888728099</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.543552015398</v>
+        <v>1945.543552015397</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325586</v>
+        <v>1637.834019325585</v>
       </c>
       <c r="D20" t="n">
         <v>1340.821304969435</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621791</v>
+        <v>1016.28603662179</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827836</v>
+        <v>666.553116082783</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783802</v>
+        <v>312.7336501783798</v>
       </c>
       <c r="H20" t="n">
-        <v>76.4030340377473</v>
+        <v>76.40303403774715</v>
       </c>
       <c r="I20" t="n">
-        <v>76.4030340377473</v>
+        <v>76.40303403774715</v>
       </c>
       <c r="J20" t="n">
-        <v>432.6878140171257</v>
+        <v>432.6878140171256</v>
       </c>
       <c r="K20" t="n">
-        <v>766.5071877069721</v>
+        <v>766.507187706972</v>
       </c>
       <c r="L20" t="n">
         <v>1217.541400955381</v>
       </c>
       <c r="M20" t="n">
-        <v>1793.071522852025</v>
+        <v>1751.073305627305</v>
       </c>
       <c r="N20" t="n">
-        <v>2339.850339910807</v>
+        <v>2297.852122686087</v>
       </c>
       <c r="O20" t="n">
-        <v>2842.822810790144</v>
+        <v>3118.073907217695</v>
       </c>
       <c r="P20" t="n">
-        <v>3237.597177147322</v>
+        <v>3512.848273574873</v>
       </c>
       <c r="Q20" t="n">
-        <v>3696.07537965631</v>
+        <v>3761.134635330555</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.151701887365</v>
+        <v>3820.151701887357</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.11401766506</v>
+        <v>3771.114017665052</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299882</v>
+        <v>3626.389254299875</v>
       </c>
       <c r="U20" t="n">
-        <v>3473.315103677096</v>
+        <v>3473.315103677094</v>
       </c>
       <c r="V20" t="n">
-        <v>3203.505200584125</v>
+        <v>3203.505200584123</v>
       </c>
       <c r="W20" t="n">
-        <v>2911.989529564611</v>
+        <v>2911.98952956461</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.776755554131</v>
+        <v>2599.77675555413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.890407828919</v>
+        <v>2270.890407828918</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866725</v>
+        <v>951.4347720866723</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055455</v>
+        <v>776.9817428055453</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0473331442943</v>
+        <v>628.047333144294</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8098781388388</v>
+        <v>468.8098781388386</v>
       </c>
       <c r="F21" t="n">
-        <v>322.2753201657238</v>
+        <v>322.2753201657236</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983419</v>
+        <v>185.9122199983417</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620936</v>
+        <v>95.41032563620922</v>
       </c>
       <c r="I21" t="n">
-        <v>76.4030340377473</v>
+        <v>76.40303403774715</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283646</v>
+        <v>170.0803035283644</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087117</v>
+        <v>408.3445025087115</v>
       </c>
       <c r="L21" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213768</v>
       </c>
       <c r="M21" t="n">
         <v>1222.318988043693</v>
@@ -5874,7 +5874,7 @@
         <v>1327.410407871694</v>
       </c>
       <c r="Y21" t="n">
-        <v>1119.650109106741</v>
+        <v>1119.65010910674</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.733708293172</v>
+        <v>672.7337082931704</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158649</v>
+        <v>565.0505096158636</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541291</v>
+        <v>476.1868544541279</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223359</v>
+        <v>389.5267451223349</v>
       </c>
       <c r="F22" t="n">
-        <v>303.8897818750255</v>
+        <v>303.8897818750247</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003444</v>
+        <v>197.4399295003438</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688021</v>
+        <v>112.4757269688017</v>
       </c>
       <c r="I22" t="n">
-        <v>76.4030340377473</v>
+        <v>76.40303403774715</v>
       </c>
       <c r="J22" t="n">
-        <v>152.6470279354843</v>
+        <v>181.5597163486959</v>
       </c>
       <c r="K22" t="n">
-        <v>356.6342108843606</v>
+        <v>416.6682607483697</v>
       </c>
       <c r="L22" t="n">
-        <v>673.1940093328567</v>
+        <v>793.262109060879</v>
       </c>
       <c r="M22" t="n">
-        <v>1077.385104796419</v>
+        <v>1137.419154660428</v>
       </c>
       <c r="N22" t="n">
-        <v>1478.827531366296</v>
+        <v>1478.827531366293</v>
       </c>
       <c r="O22" t="n">
-        <v>1778.15713028671</v>
+        <v>1778.157130286706</v>
       </c>
       <c r="P22" t="n">
-        <v>2010.764630720369</v>
+        <v>2010.764630720365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872883</v>
+        <v>2088.37492687288</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881011</v>
+        <v>2059.797453881008</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.364553958437</v>
+        <v>1929.364553958434</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778563</v>
+        <v>1768.850922778561</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154807</v>
+        <v>1541.001040154804</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.56953619952</v>
+        <v>1347.569536199518</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413159</v>
+        <v>1119.405350413157</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657419</v>
+        <v>952.6687837657398</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728117</v>
+        <v>793.1291888728099</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216476</v>
+        <v>1946.343620216474</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526664</v>
+        <v>1638.634087526663</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170513</v>
+        <v>1341.621373170512</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822869</v>
+        <v>1017.086104822868</v>
       </c>
       <c r="F23" t="n">
-        <v>667.353184283861</v>
+        <v>667.3531842838609</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794573</v>
+        <v>313.5337183794571</v>
       </c>
       <c r="H23" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="I23" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="J23" t="n">
-        <v>433.4878822182028</v>
+        <v>266.0822331978497</v>
       </c>
       <c r="K23" t="n">
-        <v>848.5088149855476</v>
+        <v>599.9016068876961</v>
       </c>
       <c r="L23" t="n">
-        <v>1299.543028233956</v>
+        <v>1050.935820136105</v>
       </c>
       <c r="M23" t="n">
-        <v>1833.074932905881</v>
+        <v>1584.467724808029</v>
       </c>
       <c r="N23" t="n">
-        <v>2379.853749964663</v>
+        <v>2131.246541866811</v>
       </c>
       <c r="O23" t="n">
-        <v>2882.826220844</v>
+        <v>2634.219012746148</v>
       </c>
       <c r="P23" t="n">
-        <v>3277.600587201177</v>
+        <v>3342.659842875428</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.078789710165</v>
+        <v>3801.138045384416</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941221</v>
+        <v>3860.155111941218</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718916</v>
+        <v>3811.117427718913</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353737</v>
+        <v>3666.392664353735</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878174</v>
+        <v>3474.115171878172</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785203</v>
+        <v>3204.305268785201</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765689</v>
+        <v>2912.789597765687</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755209</v>
+        <v>2600.576823755207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029997</v>
+        <v>2271.690476029996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877498</v>
+        <v>952.2348402877495</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066228</v>
+        <v>777.7818110066225</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453715</v>
+        <v>628.8474013453713</v>
       </c>
       <c r="E24" t="n">
-        <v>469.609946339916</v>
+        <v>469.6099463399158</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668009</v>
+        <v>323.0753883668008</v>
       </c>
       <c r="G24" t="n">
-        <v>186.712288199419</v>
+        <v>186.7122881994189</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728649</v>
+        <v>96.21039383728643</v>
       </c>
       <c r="I24" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="J24" t="n">
         <v>170.8803717294417</v>
@@ -6087,7 +6087,7 @@
         <v>2418.102970693381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.744528339981</v>
+        <v>2575.744528339982</v>
       </c>
       <c r="R24" t="n">
         <v>2575.600174932497</v>
@@ -6099,7 +6099,7 @@
         <v>2253.519288103833</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.451441238249</v>
+        <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
         <v>1790.299333006506</v>
@@ -6108,7 +6108,7 @@
         <v>1536.061976278304</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072772</v>
+        <v>1328.210476072771</v>
       </c>
       <c r="Y24" t="n">
         <v>1120.450177307818</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.5337764942491</v>
+        <v>673.5337764942476</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169421</v>
+        <v>565.8505778169408</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552062</v>
+        <v>476.9869226552051</v>
       </c>
       <c r="E25" t="n">
-        <v>390.326813323413</v>
+        <v>390.3268133234122</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761026</v>
+        <v>304.6898500761019</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014215</v>
+        <v>198.239997701421</v>
       </c>
       <c r="H25" t="n">
-        <v>113.2757951698792</v>
+        <v>113.2757951698789</v>
       </c>
       <c r="I25" t="n">
-        <v>77.20310223882441</v>
+        <v>77.20310223882437</v>
       </c>
       <c r="J25" t="n">
-        <v>182.3597845497729</v>
+        <v>182.3597845497731</v>
       </c>
       <c r="K25" t="n">
-        <v>446.3810173626622</v>
+        <v>446.3810173626625</v>
       </c>
       <c r="L25" t="n">
-        <v>794.0621772619596</v>
+        <v>762.9408158111587</v>
       </c>
       <c r="M25" t="n">
-        <v>1138.219222861509</v>
+        <v>1107.097861410708</v>
       </c>
       <c r="N25" t="n">
-        <v>1479.627599567373</v>
+        <v>1479.62759956737</v>
       </c>
       <c r="O25" t="n">
-        <v>1778.957198487787</v>
+        <v>1778.957198487783</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921446</v>
+        <v>2011.564698921443</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.17499507396</v>
+        <v>2089.174995073957</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.597522082088</v>
+        <v>2060.597522082085</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159514</v>
+        <v>1930.164622159512</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.65099097964</v>
+        <v>1769.650990979638</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355884</v>
+        <v>1541.801108355882</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400597</v>
+        <v>1348.369604400595</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614236</v>
+        <v>1120.205418614234</v>
       </c>
       <c r="X25" t="n">
-        <v>953.468851966819</v>
+        <v>953.4688519668171</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738888</v>
+        <v>793.9292570738871</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2076.721146931701</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
         <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
-        <v>1326.966459396847</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226675</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521975</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803188</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698012</v>
+        <v>774.101050269798</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899677</v>
+        <v>652.6145002899643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257018</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.484033191382</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415448</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643392</v>
+        <v>229.790514964337</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.02296113027</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347421</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519676</v>
+        <v>908.2998821519644</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>347.6465910812763</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>1002.369923216576</v>
       </c>
       <c r="L32" t="n">
-        <v>1635.769886219269</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M32" t="n">
-        <v>2169.301790891193</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N32" t="n">
-        <v>2716.080607949975</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O32" t="n">
-        <v>3219.053078829312</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P32" t="n">
-        <v>3613.82744518649</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6853,10 +6853,10 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973143</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6950,13 +6950,13 @@
         <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7035,7 +7035,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7093,22 +7093,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
         <v>2189.856749167329</v>
@@ -7151,73 +7151,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878784</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127192</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799117</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857899</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
         <v>327.0192030246656</v>
@@ -7248,28 +7248,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,19 +7336,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>1045.699547878785</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1496.733761127194</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.265665799118</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873064</v>
@@ -7509,7 +7509,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
         <v>2579.543989590362</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7637,46 +7637,46 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>393.2994530991709</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>727.1188267890172</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.153040037426</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M44" t="n">
-        <v>1711.68494470935</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N44" t="n">
-        <v>2258.463761768132</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O44" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,31 +7722,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,13 +7801,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982171</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.42244164112401</v>
       </c>
       <c r="M17" t="n">
-        <v>86.8143772871623</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>402.7360900589299</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.912071163853398e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>42.42244164113151</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>320.4538521740114</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>82.02177684595802</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>316.8348118910123</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>231.1066821161378</v>
       </c>
       <c r="P26" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>274.8351763665428</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>274.8351763665448</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>78.40458911672903</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.87446026386854</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>277.2206841544154</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591512</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>209.1187564935617</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>277.2206841544153</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5185911550064</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>287.0017854473918</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>33.83019066927753</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827605</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>90.73315823389481</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.2564078639519</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.91161198342442</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867452</v>
+        <v>95.52244399867428</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806336</v>
+        <v>314.0869406806333</v>
       </c>
       <c r="W11" t="n">
-        <v>335.5756509279117</v>
+        <v>335.5756509279115</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.7686448570676</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.68710262033656</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054601</v>
+        <v>75.26683488054579</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419406</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>99.37052522119195</v>
+        <v>205.8836314866676</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>92.60717933338211</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343267</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625935</v>
+        <v>204.9193355625932</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522102</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>27.91161198342435</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501189</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.3298541694004</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806336</v>
+        <v>314.0869406806333</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>335.5756509279114</v>
       </c>
       <c r="X14" t="n">
-        <v>306.6329251409138</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>289.2791883625018</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091266</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>68.8285665455864</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.75573023343</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>152.360490469527</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0896971248191</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033687</v>
+        <v>82.68710262033647</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.26683488054573</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.8836314866676</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>272.5465204161113</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>26.65894221211137</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>38.81130843425512</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>38.81130843425058</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>38.8113084342489</v>
+        <v>38.81130843425518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.646478521856077e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.936228954946273e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1067733.612484745</v>
+        <v>1067733.612484747</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1249106.676099811</v>
+        <v>1249106.67609981</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1249106.676099811</v>
+        <v>1249106.67609981</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204819.0846792595</v>
+        <v>204819.0846792596</v>
       </c>
       <c r="C2" t="n">
         <v>204819.0846792596</v>
@@ -26320,40 +26320,40 @@
         <v>204819.0846792596</v>
       </c>
       <c r="E2" t="n">
-        <v>176532.3994957621</v>
+        <v>176532.399495762</v>
       </c>
       <c r="F2" t="n">
-        <v>176532.399495762</v>
+        <v>176532.3994957622</v>
       </c>
       <c r="G2" t="n">
-        <v>204488.0974282291</v>
+        <v>204488.097428229</v>
       </c>
       <c r="H2" t="n">
-        <v>204488.0974282291</v>
+        <v>204488.097428229</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="J2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="K2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>205260.4424660705</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.4424660708</v>
-      </c>
-      <c r="K2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="L2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="M2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660705</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660705</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>1134700.308569464</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388634</v>
+        <v>71467.01119388574</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701232829</v>
+        <v>2659.436701233192</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927959</v>
+        <v>12898.4430292798</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870695</v>
+        <v>29753.24015870646</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.88759302221</v>
+        <v>22969.88759302245</v>
       </c>
       <c r="F4" t="n">
-        <v>22969.88759302212</v>
+        <v>22969.8875930225</v>
       </c>
       <c r="G4" t="n">
-        <v>78706.21105803634</v>
+        <v>78706.21105803625</v>
       </c>
       <c r="H4" t="n">
-        <v>78706.21105803634</v>
+        <v>78706.21105803629</v>
       </c>
       <c r="I4" t="n">
-        <v>79814.17669746626</v>
+        <v>79814.17669746635</v>
       </c>
       <c r="J4" t="n">
+        <v>76652.56781120105</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76652.56781120104</v>
+      </c>
+      <c r="L4" t="n">
         <v>76652.56781120109</v>
-      </c>
-      <c r="K4" t="n">
-        <v>76652.56781120112</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76652.56781120104</v>
       </c>
       <c r="M4" t="n">
         <v>76652.56781120108</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120108</v>
+        <v>76652.56781120109</v>
       </c>
       <c r="P4" t="n">
         <v>76652.56781120108</v>
@@ -26479,25 +26479,25 @@
         <v>75455.17016263888</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263887</v>
+        <v>75455.17016263891</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325589</v>
+        <v>86921.4203032558</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325589</v>
+        <v>86921.42030325579</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.4721360745</v>
+        <v>87529.47213607447</v>
       </c>
       <c r="J5" t="n">
+        <v>89377.94167480615</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89377.94167480613</v>
+      </c>
+      <c r="L5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89377.9416748061</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248956.2842102717</v>
+        <v>-248960.6977881397</v>
       </c>
       <c r="C6" t="n">
-        <v>-248956.2842102717</v>
+        <v>-248960.6977881397</v>
       </c>
       <c r="D6" t="n">
-        <v>-248956.2842102717</v>
+        <v>-248960.6977881397</v>
       </c>
       <c r="E6" t="n">
-        <v>-1056592.966829363</v>
+        <v>-1056880.247259067</v>
       </c>
       <c r="F6" t="n">
-        <v>78107.3417401011</v>
+        <v>77820.06131039765</v>
       </c>
       <c r="G6" t="n">
-        <v>-32606.54512694945</v>
+        <v>-32614.26857732723</v>
       </c>
       <c r="H6" t="n">
-        <v>38860.46606693686</v>
+        <v>38852.74261655847</v>
       </c>
       <c r="I6" t="n">
-        <v>35257.35693129702</v>
+        <v>35257.35693129667</v>
       </c>
       <c r="J6" t="n">
-        <v>26331.48995078399</v>
+        <v>26331.48995078374</v>
       </c>
       <c r="K6" t="n">
-        <v>39229.93298006359</v>
+        <v>39229.93298006353</v>
       </c>
       <c r="L6" t="n">
-        <v>1649.823685189578</v>
+        <v>1649.823685189447</v>
       </c>
       <c r="M6" t="n">
-        <v>-167958.6353120094</v>
+        <v>-167958.6353120095</v>
       </c>
       <c r="N6" t="n">
-        <v>39229.93298006337</v>
+        <v>39229.93298006366</v>
       </c>
       <c r="O6" t="n">
-        <v>9476.692821356628</v>
+        <v>9476.692821357137</v>
       </c>
       <c r="P6" t="n">
-        <v>39229.93298006359</v>
+        <v>39229.9329800633</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859249</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859265</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718412</v>
+        <v>955.0379254718395</v>
       </c>
       <c r="H4" t="n">
-        <v>955.0379254718413</v>
+        <v>955.0379254718393</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853052</v>
+        <v>965.0387779853046</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
-      <c r="O4" t="n">
-        <v>1014.336461208615</v>
-      </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695485</v>
+        <v>123.6364700695468</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346388</v>
+        <v>10.00085251346525</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330949</v>
+        <v>49.29768322331029</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695486</v>
+        <v>123.6364700695466</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695485</v>
+        <v>123.6364700695468</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950133</v>
+        <v>13.66531778950156</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950125</v>
+        <v>13.66531778950163</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
     </row>
     <row r="18">
@@ -28719,46 +28719,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64045440809391</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="N19" t="n">
-        <v>31.43571863717318</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>31.4357186371692</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
     </row>
     <row r="21">
@@ -28956,43 +28956,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="J22" t="n">
-        <v>31.43571863717315</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>31.43571863716917</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="M22" t="n">
-        <v>60.64045440809391</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>60.64045440809391</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
     </row>
     <row r="24">
@@ -29193,43 +29193,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="J25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43571863717307</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>31.43571863716949</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809391</v>
+        <v>60.64045440809412</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256753</v>
+        <v>59.24373440256776</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7129773338208</v>
+        <v>219.7129773338211</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596994</v>
+        <v>333.4226899596997</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829851</v>
+        <v>361.2986971829853</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570413</v>
+        <v>358.5222639570416</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0184480121411</v>
+        <v>316.0184480121413</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346117</v>
+        <v>248.6223889346119</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.05955632739496</v>
+        <v>92.0595563273952</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256744</v>
+        <v>59.24373440256782</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7129773338208</v>
+        <v>219.7129773338211</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596993</v>
+        <v>333.4226899596997</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829851</v>
+        <v>361.2986971829854</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570413</v>
+        <v>358.5222639570417</v>
       </c>
       <c r="O16" t="n">
-        <v>316.018448012141</v>
+        <v>316.0184480121413</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346116</v>
+        <v>248.622388934612</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739489</v>
+        <v>92.05955632739526</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>498.012556033456</v>
       </c>
       <c r="M17" t="n">
-        <v>625.7354931173888</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>955.0379254718412</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
         <v>508.053000888219</v>
@@ -35902,10 +35902,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>266.6881139524134</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>408.2738338015777</v>
+        <v>408.2738338015779</v>
       </c>
       <c r="N19" t="n">
-        <v>376.2926648047132</v>
+        <v>405.4974005756342</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>333.7888488598089</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36127,22 +36127,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>581.3435574713581</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>828.5068530622304</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.01413525023935</v>
+        <v>106.2188710211603</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>237.4833781814887</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>380.3978265782922</v>
       </c>
       <c r="M22" t="n">
-        <v>408.2738338015777</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>405.4974005756339</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>419.2130634013584</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36373,13 +36373,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>715.5967981103839</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.2188710211601</v>
+        <v>106.2188710211603</v>
       </c>
       <c r="K25" t="n">
-        <v>266.6881139524134</v>
+        <v>266.6881139524136</v>
       </c>
       <c r="L25" t="n">
-        <v>351.1930908073712</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>376.2926648047095</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
@@ -36595,28 +36595,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>739.1596830043569</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>730.4252907588748</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
@@ -36847,7 +36847,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>673.5971625859164</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>269.1915900854415</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37084,13 +37084,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>322.668765067588</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>785.2736850426344</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637025</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>614.411970709814</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>761.420591906473</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>614.4119707098157</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636241</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>315.3055921237189</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>742.5918998397237</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
